--- a/propEXEL.xlsx
+++ b/propEXEL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CST HOMEWORK\MAIN_PC_HW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC6E4F3B-BA01-4D99-A75B-FE4ECA701B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E4B449-5721-4A6B-BB53-CBD66F67FE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25890" yWindow="4845" windowWidth="21600" windowHeight="11385" xr2:uid="{A9EADBFB-95D2-432A-B69A-19DB239AF06E}"/>
+    <workbookView xWindow="-23565" yWindow="2190" windowWidth="21600" windowHeight="11385" xr2:uid="{A9EADBFB-95D2-432A-B69A-19DB239AF06E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,15 +103,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -119,17 +131,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,127 +532,133 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.5703125" customWidth="1"/>
-    <col min="2" max="2" width="42.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="9">
         <v>20000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="9">
         <v>8000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="9">
         <v>200000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3">
+      <c r="B5" s="2"/>
+      <c r="C5" s="10">
         <v>91981.759999999995</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="9">
         <v>2500</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="11">
         <v>322481.76</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="9">
         <v>10000</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="9">
         <v>200000</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="10">
         <v>91981.759999999995</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="11">
         <v>301981.76</v>
       </c>
     </row>
